--- a/biology/Zoologie/Élénie_huppée/Élénie_huppée.xlsx
+++ b/biology/Zoologie/Élénie_huppée/Élénie_huppée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_hupp%C3%A9e</t>
+          <t>Élénie_huppée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elaenia cristata
-L'Élénie huppée (Elaenia cristata), aussi appelée Élaène huppée, est une espèce de passereau de la famille des Tyrannidae[1].
+L'Élénie huppée (Elaenia cristata), aussi appelée Élaène huppée, est une espèce de passereau de la famille des Tyrannidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_hupp%C3%A9e</t>
+          <t>Élénie_huppée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cet oiseau est représenté par deux sous-espèces selon la classification de référence du Congrès ornithologique international  (version 9.1, 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cet oiseau est représenté par deux sous-espèces selon la classification de référence du Congrès ornithologique international  (version 9.1, 2019) :
 Elaenia cristata cristata von Pelzeln, 1868 : du Venezuela et des Guyanes jusqu'au Brésil (est et Amazonie) et au nord-est de la Bolivie ;
-Elaenia cristata alticola Zimmer &amp; Phelps, 1946 : tepuys du sud du Venezuela (sud-est de l'État de Bolívar) et zones adjacentes du nord du Brésil[1],[3],[4].</t>
+Elaenia cristata alticola Zimmer &amp; Phelps, 1946 : tepuys du sud du Venezuela (sud-est de l'État de Bolívar) et zones adjacentes du nord du Brésil.</t>
         </is>
       </c>
     </row>
